--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Personal\Jacdac-Pressure-Sensor\Components\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C02D0E-882D-4F8E-A1AA-E68CD0D5F018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E87B5-F7DF-4B34-8521-9B74DAF2FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="2595" windowWidth="25455" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2364" yWindow="732" windowWidth="18840" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-Pressure-Sensor_BOM" sheetId="1" r:id="rId1"/>
@@ -204,12 +204,6 @@
     <t>C3</t>
   </si>
   <si>
-    <t>C1,C4</t>
-  </si>
-  <si>
-    <t>C2,C5</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
@@ -304,6 +298,12 @@
   </si>
   <si>
     <t>478-1249-1-ND</t>
+  </si>
+  <si>
+    <t>C1,C4,C5</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
@@ -1185,23 +1185,23 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="32.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1247,13 +1247,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H2" s="1">
         <v>0.15</v>
@@ -1263,10 +1263,10 @@
         <v>0.3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1280,13 +1280,13 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="1">
         <v>0.15</v>
@@ -1296,10 +1296,10 @@
         <v>0.15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1313,13 +1313,13 @@
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1">
         <v>0.15</v>
@@ -1329,10 +1329,10 @@
         <v>0.15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1475,16 +1475,16 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H9" s="1">
         <v>10.89</v>
@@ -1494,76 +1494,76 @@
         <v>10.89</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H10" s="1">
         <v>0.18</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1604,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H13" s="1">
         <v>0.3</v>
@@ -1626,10 +1626,10 @@
         <v>0.3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -1695,13 +1695,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>23.05</v>
+        <v>23.09</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5E87B5-F7DF-4B34-8521-9B74DAF2FD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3AEC2C-43F9-47B1-AA62-8055EDB0A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2364" yWindow="732" windowWidth="18840" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,10 +300,10 @@
     <t>478-1249-1-ND</t>
   </si>
   <si>
-    <t>C1,C4,C5</t>
-  </si>
-  <si>
-    <t>C2</t>
+    <t>C2,C4,C5</t>
+  </si>
+  <si>
+    <t>C1</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,26 +1442,26 @@
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1">
-        <v>0.2</v>
+        <v>10.89</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>H8*B8</f>
+        <v>10.89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1475,26 +1475,26 @@
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="H9" s="1">
-        <v>10.89</v>
+        <v>0.2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>10.89</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1502,32 +1502,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
+        <f>H10*B10</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1535,32 +1535,32 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1574,16 +1574,16 @@
         <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1">
         <v>0.14000000000000001</v>
@@ -1593,7 +1593,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1709,15 +1709,15 @@
     <hyperlink ref="J7" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
     <hyperlink ref="J6" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
     <hyperlink ref="J5" r:id="rId3" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
-    <hyperlink ref="J8" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
+    <hyperlink ref="J9" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
     <hyperlink ref="J15" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
+    <hyperlink ref="J10" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
     <hyperlink ref="J4" r:id="rId7" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
     <hyperlink ref="J13" r:id="rId8" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
+    <hyperlink ref="J12" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
     <hyperlink ref="J3" r:id="rId10" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
-    <hyperlink ref="J9" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J8" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
+    <hyperlink ref="J11" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3AEC2C-43F9-47B1-AA62-8055EDB0A40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6391E9-40F7-444E-B60C-7001D33D73A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="732" windowWidth="18840" windowHeight="11796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jacdac-Pressure-Sensor_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Jacdac-Pressure-Sensor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,9 +60,6 @@
     <t>Total Price:</t>
   </si>
   <si>
-    <t>LED (D1)</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -168,9 +165,6 @@
     <t>https://www.digikey.ca/en/products/detail/semtech-corporation/RCLAMP0521P-TCT/1833954</t>
   </si>
   <si>
-    <t>D2,D3</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/broadcom-limited/HSMF-C114/1235344</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>https://www.digikey.ca/en/products/detail/avx-corporation/08053C104KAT2A/1116281?</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
@@ -300,10 +291,19 @@
     <t>478-1249-1-ND</t>
   </si>
   <si>
-    <t>C2,C4,C5</t>
-  </si>
-  <si>
-    <t>C1</t>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C1,C3,C5</t>
+  </si>
+  <si>
+    <t>D1,D2</t>
+  </si>
+  <si>
+    <t>LED (D3)</t>
   </si>
 </sst>
 </file>
@@ -1184,24 +1184,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" customWidth="1"/>
-    <col min="5" max="5" width="33.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
-    <col min="7" max="7" width="32.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.88671875" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1224,16 +1224,16 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1241,32 +1241,32 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1">
         <v>0.15</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I15" si="0">H2*B2</f>
+        <f t="shared" ref="I2:I14" si="0">H2*B2</f>
         <v>0.3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1274,19 +1274,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H3" s="1">
         <v>0.15</v>
@@ -1296,10 +1296,10 @@
         <v>0.15</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1307,19 +1307,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1">
         <v>0.15</v>
@@ -1329,10 +1329,10 @@
         <v>0.15</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1340,19 +1340,19 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1">
         <v>0.15</v>
@@ -1362,10 +1362,10 @@
         <v>0.3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1376,62 +1376,62 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>4.66</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="H7" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="0"/>
         <v>0.56999999999999995</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>32</v>
+      <c r="J7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.66</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1439,19 +1439,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1">
         <v>10.89</v>
@@ -1461,10 +1461,10 @@
         <v>10.89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1472,19 +1472,19 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H9" s="1">
         <v>0.2</v>
@@ -1494,76 +1494,76 @@
         <v>0.2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="H10" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I10" s="1">
-        <f>H10*B10</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="0"/>
+        <v>0.54</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1">
-        <v>0.18</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1571,32 +1571,32 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f>H12*B12</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1604,19 +1604,19 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>0.3</v>
@@ -1626,98 +1626,98 @@
         <v>0.3</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H14" s="1">
-        <v>2.63</v>
+        <v>1.06</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
+        <v>2.12</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
         <v>2.63</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1.06</v>
-      </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
+        <f>H15*B15</f>
+        <v>2.63</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(I2:I15)</f>
-        <v>23.09</v>
+        <f>SUM(I2:I14)</f>
+        <v>20.460000000000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
     <hyperlink ref="J5" r:id="rId3" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
     <hyperlink ref="J9" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
-    <hyperlink ref="J15" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
-    <hyperlink ref="J10" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
+    <hyperlink ref="J14" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
     <hyperlink ref="J4" r:id="rId7" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
     <hyperlink ref="J13" r:id="rId8" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
-    <hyperlink ref="J12" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
     <hyperlink ref="J3" r:id="rId10" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
     <hyperlink ref="J8" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
-    <hyperlink ref="J11" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J10" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6391E9-40F7-444E-B60C-7001D33D73A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37060E2D-2E1C-492A-AF23-96993F2D354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="510" windowWidth="11370" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jacdac-Pressure-Sensor" sheetId="1" r:id="rId1"/>
@@ -1185,7 +1185,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,8 +1700,8 @@
         <v>8</v>
       </c>
       <c r="I18" s="1">
-        <f>SUM(I2:I14)</f>
-        <v>20.460000000000004</v>
+        <f>SUM(I2:I15)</f>
+        <v>23.090000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37060E2D-2E1C-492A-AF23-96993F2D354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D82937-5693-4C89-BF88-DCA4CAE037DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Index</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Digikey Part Number</t>
-  </si>
-  <si>
     <t>Manufacturer Part Number</t>
   </si>
   <si>
@@ -84,27 +81,6 @@
     <t>Total Price (CAD)</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805JR-074K7L/728327</t>
-  </si>
-  <si>
-    <t>RES 4.7K OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>RC0805JR-074K7L</t>
-  </si>
-  <si>
-    <t>311-4.7KARCT-ND</t>
-  </si>
-  <si>
-    <t>CAP CER 0.1UF 25V X7R 0805</t>
-  </si>
-  <si>
-    <t>08053C104KAT2A</t>
-  </si>
-  <si>
-    <t>478-3755-1-ND</t>
-  </si>
-  <si>
     <t>R1,R2</t>
   </si>
   <si>
@@ -126,57 +102,30 @@
     <t>U4</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/on-semiconductor/NCP114ASN330T1G/6560605</t>
-  </si>
-  <si>
-    <t>NCP114ASN330T1GOSCT-ND</t>
-  </si>
-  <si>
     <t>NCP114ASN330T1G</t>
   </si>
   <si>
     <t>IC REG LINEAR 3.3V 300MA 5TSOP</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/STM32F042F6P6/5268189</t>
-  </si>
-  <si>
     <t>IC MCU 32BIT 32KB FLASH 20TSSOP</t>
   </si>
   <si>
     <t>STM32F042F6P6</t>
   </si>
   <si>
-    <t>497-17344-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/nexperia-usa-inc/BAT54S-235/1232122</t>
-  </si>
-  <si>
     <t>DIODE ARRAY SCHOTTKY 30V SOT23</t>
   </si>
   <si>
-    <t>1727-1868-1-ND</t>
-  </si>
-  <si>
     <t>BAT54S,235</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/semtech-corporation/RCLAMP0521P-TCT/1833954</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/broadcom-limited/HSMF-C114/1235344</t>
   </si>
   <si>
     <t>TVS DIODE 5VWM 25VC SLP1006P2</t>
   </si>
   <si>
-    <t>RCLAMP0521P.TCT</t>
-  </si>
-  <si>
-    <t>RCLAMP0521PCT-ND</t>
-  </si>
-  <si>
     <t>RCLAMP0521P</t>
   </si>
   <si>
@@ -186,111 +135,39 @@
     <t>HSMF-C114</t>
   </si>
   <si>
-    <t xml:space="preserve">516-1795-1-ND </t>
-  </si>
-  <si>
     <t xml:space="preserve">RGB LED </t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/avx-corporation/08053C104KAT2A/1116281?</t>
-  </si>
-  <si>
     <t>FB1</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/vishay-dale/CRCW0805220RJNEB/5074408</t>
-  </si>
-  <si>
-    <t>RES SMD 220 OHM 5% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>CRCW0805220RJNEB</t>
-  </si>
-  <si>
-    <t>541-CRCW0805220RJNEBCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/tdk-corporation/KPZ1608SHR102ATD25/7104424</t>
-  </si>
-  <si>
     <t>FERRITE BEAD 1 KOHM 0603 1LN</t>
   </si>
   <si>
-    <t>KPZ1608SHR102ATD25</t>
-  </si>
-  <si>
-    <t>445-175021-1-ND</t>
-  </si>
-  <si>
     <t>800mA 1kR</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/kemet/C0603C330M5HAC7867/7947133</t>
-  </si>
-  <si>
     <t>CAP CER 0603 33PF 50V ULTRA STAB</t>
   </si>
   <si>
     <t>33pF</t>
   </si>
   <si>
-    <t>C0603C330M5HAC7867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">399-C0603C330M5HAC7867CT-ND </t>
-  </si>
-  <si>
-    <t>RES 150 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/vishay-dale/CRCW0805150RFKEAC/7922303</t>
-  </si>
-  <si>
-    <t>CRCW0805150RFKEAC</t>
-  </si>
-  <si>
-    <t>541-CRCW0805150RFKEACCT-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ca/en/products/detail/yageo/RC0805FR-0730RL/727842</t>
-  </si>
-  <si>
-    <t>RC0805FR-0730RL</t>
-  </si>
-  <si>
-    <t>RES 30 OHM 1% 1/8W 0805</t>
-  </si>
-  <si>
-    <t>311-30.0CRCT-ND</t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/stmicroelectronics/LPS33HWTR/7348329</t>
   </si>
   <si>
     <t>LPS33HWTR</t>
   </si>
   <si>
-    <t xml:space="preserve">497-17590-1-ND </t>
-  </si>
-  <si>
     <t xml:space="preserve">PRESSURE SENSOR </t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/avx-corporation/0603YD105KAT2A/563359</t>
-  </si>
-  <si>
-    <t>0603YD105KAT2A</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
     <t>CAP CER 1UF 16V X5R 0603</t>
   </si>
   <si>
-    <t>478-1249-1-ND</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
@@ -304,6 +181,129 @@
   </si>
   <si>
     <t>LED (D3)</t>
+  </si>
+  <si>
+    <t>Digikey/Mouser/LCSC Part Number</t>
+  </si>
+  <si>
+    <t>C136965</t>
+  </si>
+  <si>
+    <t>RT0603BRD0730RL</t>
+  </si>
+  <si>
+    <t>RES 30 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-span-style-background-color-ff0-Resistor-span-Surface-Mount_YAGEO-RT0603BRD0730RL_C136965.html</t>
+  </si>
+  <si>
+    <t>C319859</t>
+  </si>
+  <si>
+    <t>AR03BTCX1500</t>
+  </si>
+  <si>
+    <t>RES 150 OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTCX1500_C319859.html</t>
+  </si>
+  <si>
+    <t>C318124</t>
+  </si>
+  <si>
+    <t>AR03BTCX2200</t>
+  </si>
+  <si>
+    <t>RES SMD 220 OHM 5% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTCX2200_C318124.html</t>
+  </si>
+  <si>
+    <t>C700513</t>
+  </si>
+  <si>
+    <t>RT0603FRE074K7L</t>
+  </si>
+  <si>
+    <t>RES 4.7K OHM 1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_YAGEO-RT0603FRE074K7L_C700513.html</t>
+  </si>
+  <si>
+    <t>NCP114ASN330T1GOSCT-ND/C457666</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_onsemi-NCP114ASN330T1G_C457666.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Magnetic-Sensors_Infineon-Technologies-TLV493DA1B6HTSA2_C126688.html</t>
+  </si>
+  <si>
+    <t>C503463</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Pre-ordered-transistors_Nexperia-BAT54S-235_C503463.html</t>
+  </si>
+  <si>
+    <t>C519560</t>
+  </si>
+  <si>
+    <t>CC0603JRX7R7BB105</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603JRX7R7BB105_C519560.html</t>
+  </si>
+  <si>
+    <t>C519485</t>
+  </si>
+  <si>
+    <t>CC0603FRNPO9BN330</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_YAGEO-CC0603FRNPO9BN330_C519485.html</t>
+  </si>
+  <si>
+    <t>C1845757</t>
+  </si>
+  <si>
+    <t>C0603C104M3RACAUTO</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 25V X7R 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_KEMET-C0603C104M3RACAUTO_C1845757.html</t>
+  </si>
+  <si>
+    <t>C193411</t>
+  </si>
+  <si>
+    <t>MPZ1608S102ATD25</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ferrite-Beads_TDK-MPZ1608S102ATD25_C193411.html</t>
+  </si>
+  <si>
+    <t>C2827711</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ESD-Protection-Devices_TECH-PUBLIC-RCLAMP0521P_C2827711.html</t>
+  </si>
+  <si>
+    <t>516-1795-1-ND /C97504</t>
+  </si>
+  <si>
+    <t>C81000</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32F042F6P6_C81000.html</t>
+  </si>
+  <si>
+    <t>497-17590-1-ND /C2760770</t>
   </si>
 </sst>
 </file>
@@ -1182,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1201,7 @@
     <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1212,28 +1212,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1241,32 +1241,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1">
-        <v>0.15</v>
+        <v>3.44E-2</v>
       </c>
       <c r="I2" s="1">
-        <f t="shared" ref="I2:I14" si="0">H2*B2</f>
-        <v>0.3</v>
+        <v>6.88E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1274,32 +1273,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H3" s="1">
-        <v>0.15</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1307,32 +1305,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H4" s="1">
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1340,32 +1337,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="H5" s="1">
-        <v>0.15</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>1.78E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1373,32 +1369,32 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
-        <v>4.66</v>
+        <v>7.33</v>
       </c>
       <c r="I6" s="1">
         <f>H6*B6</f>
-        <v>4.66</v>
+        <v>7.33</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1406,32 +1402,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.56999999999999995</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1439,19 +1434,19 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1">
         <v>10.89</v>
@@ -1461,10 +1456,13 @@
         <v>10.89</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1472,32 +1470,31 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1505,32 +1502,31 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="H10" s="1">
-        <v>0.18</v>
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1538,32 +1534,31 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>1.77E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1571,32 +1566,31 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1">
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I12" s="1">
-        <f>H12*B12</f>
-        <v>0.14000000000000001</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1604,32 +1598,31 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1">
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1637,32 +1630,31 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1">
-        <v>1.06</v>
+        <v>4.4499999999999998E-2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.12</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1670,54 +1662,43 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="H15" s="1">
         <v>2.63</v>
       </c>
       <c r="I15" s="1">
-        <f>H15*B15</f>
         <v>2.63</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1">
         <f>SUM(I2:I15)</f>
-        <v>23.090000000000003</v>
+        <v>21.505700000000001</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J6" r:id="rId1" xr:uid="{303FD325-93A2-4122-A17E-C111FE863494}"/>
-    <hyperlink ref="J7" r:id="rId2" xr:uid="{45ABB9EA-EB9F-4A28-9ABF-7C64A3A6F5DB}"/>
-    <hyperlink ref="J5" r:id="rId3" xr:uid="{9E0D8D76-48CA-4E86-B954-83F584984FBF}"/>
-    <hyperlink ref="J9" r:id="rId4" xr:uid="{D29A8DD9-A9DA-423A-89F6-1572B5E95308}"/>
-    <hyperlink ref="J14" r:id="rId5" xr:uid="{BE0278AA-8F15-453A-8705-82A5A09BACB2}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{4A19B154-56CF-43D7-BB3F-0EC4294EE8C9}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{5F3681DE-D292-44D4-9A84-E6BFB5A5DE92}"/>
-    <hyperlink ref="J13" r:id="rId8" xr:uid="{91D92F31-CA23-4FA3-AA47-2EA6A9956017}"/>
-    <hyperlink ref="J11" r:id="rId9" xr:uid="{121F1F51-57F5-4FE9-9041-9EAA3A6F160B}"/>
-    <hyperlink ref="J3" r:id="rId10" xr:uid="{2074E78E-7951-40C0-BF60-DF4399090BDD}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{70850A71-5622-4387-ADA1-C241627D2542}"/>
-    <hyperlink ref="J10" r:id="rId12" xr:uid="{4A5D4C2F-27FB-44B7-AE53-8255865EBABA}"/>
+    <hyperlink ref="J6" r:id="rId1" xr:uid="{B9DB547F-F985-4213-B5B3-F6DC08A4B2C9}"/>
+    <hyperlink ref="J8" r:id="rId2" xr:uid="{11C46CFE-05D8-4EF0-A414-0B91E22D69FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D82937-5693-4C89-BF88-DCA4CAE037DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4059943-579C-4B62-9DD3-390B2A53C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Jacdac-Pressure-Sensor" sheetId="1" r:id="rId1"/>
+    <sheet name="RevA" sheetId="1" r:id="rId1"/>
+    <sheet name="RevB" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>Index</t>
   </si>
@@ -304,6 +305,78 @@
   </si>
   <si>
     <t>497-17590-1-ND /C2760770</t>
+  </si>
+  <si>
+    <t>STM32G030F6P6</t>
+  </si>
+  <si>
+    <t>C724040</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/ST-Microelectronics_STMicroelectronics-STM32G030F6P6_C724040.html</t>
+  </si>
+  <si>
+    <t>XC6206-3.3V</t>
+  </si>
+  <si>
+    <t>C3015484</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V SOT-23</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C3015484.html</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
+  </si>
+  <si>
+    <t>LED RGB CHIP SMD</t>
+  </si>
+  <si>
+    <t>C108793</t>
+  </si>
+  <si>
+    <t>FM-B2020RGBA-HG</t>
+  </si>
+  <si>
+    <t>R3,R4</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>AR03BTC4700</t>
+  </si>
+  <si>
+    <t>C374403</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 0.1% 1/8W 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTC4700_C374403.html</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>C342959</t>
+  </si>
+  <si>
+    <t>C1608X7S1A475KT000E</t>
+  </si>
+  <si>
+    <t>CAP CER 4.7UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1608X7S1A475KT000E_C342959.html</t>
   </si>
 </sst>
 </file>
@@ -1184,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,4 +1775,549 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96E420-D8D4-48F6-8177-7296F5707E1D}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2*B2</f>
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.78E-2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>0.98</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="1">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10.89</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8*B8</f>
+        <v>10.89</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I10" si="1">H9*B9</f>
+        <v>0.03</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.77E-2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f>H12*B12</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13:I14" si="2">H13*B13</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15*B15</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="1">
+        <f>SUM(I2:I15)</f>
+        <v>12.399800000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{50B11CDB-4026-4C25-85E6-4B15807F4203}"/>
+    <hyperlink ref="J12" r:id="rId2" xr:uid="{5F8112FB-1EE0-46CC-8921-1CF8E3184D2D}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{7047DFA2-213E-4A6A-A18B-710C35B07E21}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{F5784B37-37A1-4096-8B43-20BAFA965D31}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{92810526-E438-4F5E-972D-7DA2DE12220D}"/>
+    <hyperlink ref="J9" r:id="rId6" xr:uid="{763ABD73-4C1A-4193-A98C-D6655F9E99A7}"/>
+    <hyperlink ref="J11" r:id="rId7" xr:uid="{424A1A07-44FD-45EA-9048-7A4C0F88BB1C}"/>
+    <hyperlink ref="J14" r:id="rId8" xr:uid="{4E52E83B-C139-4D2F-9D59-1F890F71E48F}"/>
+    <hyperlink ref="J13" r:id="rId9" xr:uid="{D493AFC6-76F1-43EF-B1EE-D24499EC559B}"/>
+    <hyperlink ref="J15" r:id="rId10" xr:uid="{3E679C2A-C3B2-44BB-9B20-363BE7C68B9F}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{24CD7B49-2041-4648-A5FA-C410E0E9D231}"/>
+    <hyperlink ref="J6" r:id="rId12" xr:uid="{9F5A1785-E880-4D76-8BFA-E1E79DA1D502}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{DAC91255-3844-419D-8E71-75BE7EC03572}"/>
+    <hyperlink ref="J10" r:id="rId14" xr:uid="{335B788A-C325-44E5-AA0D-492A729EE797}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4059943-579C-4B62-9DD3-390B2A53C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131863F0-7D2C-4A28-96E3-39E066978E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevA" sheetId="1" r:id="rId1"/>
-    <sheet name="RevB" sheetId="2" r:id="rId2"/>
+    <sheet name="RevB" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
   <si>
     <t>Index</t>
   </si>
@@ -340,43 +340,145 @@
     <t>FM-B2020RGBA-HG</t>
   </si>
   <si>
-    <t>R3,R4</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>470R</t>
   </si>
   <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>AR03BTC4700</t>
-  </si>
-  <si>
-    <t>C374403</t>
-  </si>
-  <si>
-    <t>RES 470 OHM 0.1% 1/8W 0603</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR03BTC4700_C374403.html</t>
-  </si>
-  <si>
     <t>4.7uF</t>
   </si>
   <si>
-    <t>C342959</t>
-  </si>
-  <si>
-    <t>C1608X7S1A475KT000E</t>
-  </si>
-  <si>
-    <t>CAP CER 4.7UF 10V X5R 0603</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1608X7S1A475KT000E_C342959.html</t>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>C2902636</t>
+  </si>
+  <si>
+    <t>ARG02BTC1002</t>
+  </si>
+  <si>
+    <t>RES 10K OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-ARG02BTC1002_C2902636.html</t>
+  </si>
+  <si>
+    <t>R3,R5</t>
+  </si>
+  <si>
+    <t>C482103</t>
+  </si>
+  <si>
+    <t>CRCW0402220RFKED</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402220RFKED_C482103.html</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>C482182</t>
+  </si>
+  <si>
+    <t>CRCW0402470RFKED</t>
+  </si>
+  <si>
+    <t>RES 470 OHM 1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402470RFKED_C482182.html</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>C319855</t>
+  </si>
+  <si>
+    <t>AR02BTC1500</t>
+  </si>
+  <si>
+    <t>RES 150 OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC1500_C319855.html</t>
+  </si>
+  <si>
+    <t>IC1</t>
+  </si>
+  <si>
+    <t>IC2</t>
+  </si>
+  <si>
+    <t>C1,C4</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C361202</t>
+  </si>
+  <si>
+    <t>C1005X5R1H104KT000F</t>
+  </si>
+  <si>
+    <t>50V 100nF X5R ±10% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1005X5R1H104KT000F_C361202.html</t>
+  </si>
+  <si>
+    <t>C2,C3</t>
+  </si>
+  <si>
+    <t>C342983</t>
+  </si>
+  <si>
+    <t>C1005X5R1A475KTJ00E</t>
+  </si>
+  <si>
+    <t>10V 4.7uF X5R ±10% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC4701_C317921.html</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C76905</t>
+  </si>
+  <si>
+    <t>GJM1555C1H330GB01D</t>
+  </si>
+  <si>
+    <t>50V 33pF C0G ±2% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Murata-Electronics-GJM1555C1H330GB01D_C76905.html</t>
+  </si>
+  <si>
+    <t>1kΩ @ 100MHz</t>
+  </si>
+  <si>
+    <t>C275423</t>
+  </si>
+  <si>
+    <t>MMZ1005S102ET000</t>
+  </si>
+  <si>
+    <t>FERRITE BEAD 250mA 1 1Ω 1kΩ@100MHz ±25% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Ferrite-Beads_TDK-MMZ1005S102ET000_C275423.html</t>
+  </si>
+  <si>
+    <t>LED (D1)</t>
+  </si>
+  <si>
+    <t>D2</t>
   </si>
 </sst>
 </file>
@@ -890,7 +992,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -899,6 +1001,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1778,11 +1881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF96E420-D8D4-48F6-8177-7296F5707E1D}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD1190-5593-48E9-AA0A-6946DA6E214E}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1901,7 @@
     <col min="10" max="10" width="77.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1830,271 +1933,274 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="1">
-        <v>3.1600000000000003E-2</v>
+        <v>2.3300000000000001E-2</v>
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>3.1600000000000003E-2</v>
+        <v>4.6600000000000003E-2</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3*B3</f>
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4*B4</f>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I11" si="0">H3*B3</f>
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1">
-        <v>8.8999999999999999E-3</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>1.78E-2</v>
+        <f t="shared" ref="I5:I8" si="0">H5*B5</f>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1">
-        <v>0.98</v>
+        <v>10.89</v>
       </c>
       <c r="I6" s="1">
         <f>H6*B6</f>
+        <v>10.89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.98</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="I7" s="1">
+        <f>H7*B7</f>
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="0"/>
         <v>4.0800000000000003E-2</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10.89</v>
-      </c>
-      <c r="I8" s="1">
-        <f>H8*B8</f>
-        <v>10.89</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>129</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="H9" s="1">
-        <v>0.03</v>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" ref="I9:I10" si="1">H9*B9</f>
-        <v>0.03</v>
+        <f>H9*B9</f>
+        <v>2.2700000000000001E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2102,32 +2208,32 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="H10" s="1">
-        <v>4.8000000000000001E-2</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.14400000000000002</v>
+        <f t="shared" ref="I10:I12" si="1">H10*B10</f>
+        <v>0.14280000000000001</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2135,188 +2241,155 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="H11" s="1">
-        <v>1.77E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.77E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="H12" s="1">
-        <v>1.7999999999999999E-2</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="I12" s="1">
-        <f>H12*B12</f>
-        <v>3.5999999999999997E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="H13" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13:I14" si="2">H13*B13</f>
-        <v>2.8000000000000001E-2</v>
+        <f>H13*B13</f>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
-        <v>4.4499999999999998E-2</v>
+        <v>0.03</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="2"/>
-        <v>8.8999999999999996E-2</v>
+        <f>H14*B14</f>
+        <v>0.03</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="1">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="I15" s="1">
-        <f>H15*B15</f>
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f>SUM(I2:I15)</f>
-        <v>12.399800000000001</v>
+      <c r="I17" s="1">
+        <f>SUM(I2:I14)</f>
+        <v>12.3584</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{50B11CDB-4026-4C25-85E6-4B15807F4203}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{5F8112FB-1EE0-46CC-8921-1CF8E3184D2D}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{7047DFA2-213E-4A6A-A18B-710C35B07E21}"/>
-    <hyperlink ref="J3" r:id="rId4" xr:uid="{F5784B37-37A1-4096-8B43-20BAFA965D31}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{92810526-E438-4F5E-972D-7DA2DE12220D}"/>
-    <hyperlink ref="J9" r:id="rId6" xr:uid="{763ABD73-4C1A-4193-A98C-D6655F9E99A7}"/>
-    <hyperlink ref="J11" r:id="rId7" xr:uid="{424A1A07-44FD-45EA-9048-7A4C0F88BB1C}"/>
-    <hyperlink ref="J14" r:id="rId8" xr:uid="{4E52E83B-C139-4D2F-9D59-1F890F71E48F}"/>
-    <hyperlink ref="J13" r:id="rId9" xr:uid="{D493AFC6-76F1-43EF-B1EE-D24499EC559B}"/>
-    <hyperlink ref="J15" r:id="rId10" xr:uid="{3E679C2A-C3B2-44BB-9B20-363BE7C68B9F}"/>
-    <hyperlink ref="J7" r:id="rId11" xr:uid="{24CD7B49-2041-4648-A5FA-C410E0E9D231}"/>
-    <hyperlink ref="J6" r:id="rId12" xr:uid="{9F5A1785-E880-4D76-8BFA-E1E79DA1D502}"/>
-    <hyperlink ref="J8" r:id="rId13" xr:uid="{DAC91255-3844-419D-8E71-75BE7EC03572}"/>
-    <hyperlink ref="J10" r:id="rId14" xr:uid="{335B788A-C325-44E5-AA0D-492A729EE797}"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{5704300C-6BFE-46E9-990C-07CB5610C709}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{4666B082-6358-46BA-B76D-8B45C5E8641E}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{25CF94E0-D270-4A1A-A159-47E8948318CA}"/>
+    <hyperlink ref="J14" r:id="rId4" xr:uid="{957D2173-AE01-4569-A019-4DB104814416}"/>
+    <hyperlink ref="J12" r:id="rId5" xr:uid="{E92E95F9-BD32-4E63-9492-7E8C9B77653E}"/>
+    <hyperlink ref="J13" r:id="rId6" xr:uid="{BFCE70B9-661A-4D02-A889-423F6786C196}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{7C77D27C-0448-44A3-97C8-644D933911E0}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{B600137C-9173-4654-B0F0-C97BC52EC55E}"/>
+    <hyperlink ref="J9" r:id="rId9" xr:uid="{05EBAC8F-8DCF-4F52-A186-D42DA6BC2AF9}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{FFFF3E8D-0760-4797-A093-04182E1D6255}"/>
+    <hyperlink ref="J10" r:id="rId11" xr:uid="{7A747744-27E6-46FC-A1C9-13EE811D1D42}"/>
+    <hyperlink ref="J4" r:id="rId12" xr:uid="{F5727CD6-1F43-4396-9322-17FD9710B501}"/>
+    <hyperlink ref="J2" r:id="rId13" xr:uid="{D14B237E-6486-497E-BAC0-40E667BD9E1D}"/>
+    <hyperlink ref="J6" r:id="rId14" xr:uid="{5FF21EDA-18CF-40D9-A318-3A0FB4A19952}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131863F0-7D2C-4A28-96E3-39E066978E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75A60E6-E852-458A-993C-53F703E76C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevA" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
   <si>
     <t>Index</t>
   </si>
@@ -319,15 +319,6 @@
     <t>XC6206-3.3V</t>
   </si>
   <si>
-    <t>C3015484</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 3.3V SOT-23</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C3015484.html</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/Light-Emitting-Diodes-LED_Foshan-NationStar-Optoelectronics-FM-B2020RGBA-HG_C108793.html</t>
   </si>
   <si>
@@ -364,18 +355,6 @@
     <t>R3,R5</t>
   </si>
   <si>
-    <t>C482103</t>
-  </si>
-  <si>
-    <t>CRCW0402220RFKED</t>
-  </si>
-  <si>
-    <t>RES 220 OHM 1% 0402</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Vishay-Intertech-CRCW0402220RFKED_C482103.html</t>
-  </si>
-  <si>
     <t>R6</t>
   </si>
   <si>
@@ -442,9 +421,6 @@
     <t>10V 4.7uF X5R ±10% 0402</t>
   </si>
   <si>
-    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC4701_C317921.html</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
@@ -475,10 +451,46 @@
     <t>https://lcsc.com/product-detail/Ferrite-Beads_TDK-MMZ1005S102ET000_C275423.html</t>
   </si>
   <si>
-    <t>LED (D1)</t>
-  </si>
-  <si>
     <t>D2</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_TDK-C1005X5R1A475KTJ00E_C342983.html</t>
+  </si>
+  <si>
+    <t>BAT54S</t>
+  </si>
+  <si>
+    <t>C328578</t>
+  </si>
+  <si>
+    <t>BAT54S,23</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Foshan-Blue-Rocket-Elec-BAT54S_C328578.html</t>
+  </si>
+  <si>
+    <t>C317911</t>
+  </si>
+  <si>
+    <t>AR02BTC2200</t>
+  </si>
+  <si>
+    <t>RES 220 OHM 0.1% 0402</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_Viking-Tech-AR02BTC2200_C317911.html</t>
+  </si>
+  <si>
+    <t>C2891841</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 3.3V  SOT-23-3L</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C2891841.html</t>
   </si>
 </sst>
 </file>
@@ -1361,23 +1373,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:J8"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1473,7 +1485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1570,7 +1582,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1602,7 +1614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1638,7 +1650,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1702,7 +1714,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1734,7 +1746,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1766,7 +1778,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1830,7 +1842,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1862,7 +1874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.75">
       <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1885,23 +1897,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="77.85546875" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1933,9 +1945,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -1944,16 +1956,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="H2" s="1">
         <v>2.3300000000000001E-2</v>
@@ -1963,63 +1975,63 @@
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="H3" s="1">
-        <v>4.0899999999999999E-2</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="I3" s="1">
         <f>H3*B3</f>
-        <v>4.0899999999999999E-2</v>
+        <v>5.4399999999999997E-2</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H4" s="1">
         <v>3.9399999999999998E-2</v>
@@ -2029,30 +2041,30 @@
         <v>3.9399999999999998E-2</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H5" s="1">
         <v>3.2000000000000001E-2</v>
@@ -2062,18 +2074,18 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -2101,15 +2113,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>91</v>
@@ -2134,9 +2146,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -2148,92 +2160,92 @@
         <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="H8" s="1">
-        <v>4.0800000000000003E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>4.0800000000000003E-2</v>
+        <v>6.1400000000000003E-2</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H9" s="1">
         <v>2.2700000000000001E-2</v>
       </c>
       <c r="I9" s="1">
         <f>H9*B9</f>
-        <v>2.2700000000000001E-2</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H10" s="1">
         <v>4.7600000000000003E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ref="I10:I12" si="1">H10*B10</f>
-        <v>0.14280000000000001</v>
+        <v>9.5200000000000007E-2</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2241,19 +2253,19 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H11" s="1">
         <v>3.3500000000000002E-2</v>
@@ -2263,12 +2275,12 @@
         <v>3.3500000000000002E-2</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
@@ -2277,16 +2289,16 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H12" s="1">
         <v>3.0800000000000001E-2</v>
@@ -2296,30 +2308,30 @@
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H13" s="1">
         <v>2.8899999999999999E-2</v>
@@ -2329,67 +2341,67 @@
         <v>2.8899999999999999E-2</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H14" s="1">
-        <v>0.03</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="I14" s="1">
         <f>H14*B14</f>
-        <v>0.03</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.75">
       <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(I2:I14)</f>
-        <v>12.3584</v>
+        <v>12.362100000000002</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K6" r:id="rId1" xr:uid="{5704300C-6BFE-46E9-990C-07CB5610C709}"/>
-    <hyperlink ref="J5" r:id="rId2" xr:uid="{4666B082-6358-46BA-B76D-8B45C5E8641E}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{25CF94E0-D270-4A1A-A159-47E8948318CA}"/>
-    <hyperlink ref="J14" r:id="rId4" xr:uid="{957D2173-AE01-4569-A019-4DB104814416}"/>
-    <hyperlink ref="J12" r:id="rId5" xr:uid="{E92E95F9-BD32-4E63-9492-7E8C9B77653E}"/>
-    <hyperlink ref="J13" r:id="rId6" xr:uid="{BFCE70B9-661A-4D02-A889-423F6786C196}"/>
-    <hyperlink ref="J8" r:id="rId7" xr:uid="{7C77D27C-0448-44A3-97C8-644D933911E0}"/>
-    <hyperlink ref="J7" r:id="rId8" xr:uid="{B600137C-9173-4654-B0F0-C97BC52EC55E}"/>
-    <hyperlink ref="J9" r:id="rId9" xr:uid="{05EBAC8F-8DCF-4F52-A186-D42DA6BC2AF9}"/>
-    <hyperlink ref="J11" r:id="rId10" xr:uid="{FFFF3E8D-0760-4797-A093-04182E1D6255}"/>
-    <hyperlink ref="J10" r:id="rId11" xr:uid="{7A747744-27E6-46FC-A1C9-13EE811D1D42}"/>
-    <hyperlink ref="J4" r:id="rId12" xr:uid="{F5727CD6-1F43-4396-9322-17FD9710B501}"/>
-    <hyperlink ref="J2" r:id="rId13" xr:uid="{D14B237E-6486-497E-BAC0-40E667BD9E1D}"/>
-    <hyperlink ref="J6" r:id="rId14" xr:uid="{5FF21EDA-18CF-40D9-A318-3A0FB4A19952}"/>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{0F49E0C4-81A8-4EA9-AEB5-42C9F8EDF068}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{62C510D4-B744-43A9-8CEF-71DEF8DDD08A}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{C15AC332-4BE6-45FB-B422-BDFADED1FAAA}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{D4543FB7-5C51-44F7-8961-35FD94FEAB26}"/>
+    <hyperlink ref="J13" r:id="rId5" xr:uid="{D4CB67D5-EB18-472B-9731-93822550C136}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{B7CA3673-5B2B-42F1-8F6A-44A2311732D8}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{68EDEE8B-1178-4FBF-B099-446D6869B0BF}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{18E773B4-1C07-42F2-A736-D956F42D9AEA}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{6DCA69C4-B163-425B-9601-EF459D4E7772}"/>
+    <hyperlink ref="J10" r:id="rId10" xr:uid="{B63A9ABF-C22C-4F76-9F11-9B82E8F44D69}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{4AE52397-EC82-4C0B-8470-E13198CC8343}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{C10F3E62-E060-4F97-916F-22625BAE39AE}"/>
+    <hyperlink ref="J6" r:id="rId13" xr:uid="{54E29EE4-5187-4255-94F7-AF0AE9D75161}"/>
+    <hyperlink ref="J14" r:id="rId14" xr:uid="{1D281F04-D96F-444C-869E-DEEE9BCF782D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Components/Jacdac_Pressure_Sensor_BOM.xlsx
+++ b/Components/Jacdac_Pressure_Sensor_BOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milad\Development\Jacdac\Jacdac-Pressure-Sensor\Components\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75A60E6-E852-458A-993C-53F703E76C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73D94D9-E682-4697-BC0E-899ECAFE0B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RevA" sheetId="1" r:id="rId1"/>
     <sheet name="RevB" sheetId="3" r:id="rId2"/>
+    <sheet name="RevC" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="155">
   <si>
     <t>Index</t>
   </si>
@@ -491,6 +492,12 @@
   </si>
   <si>
     <t>https://lcsc.com/product-detail/Linear-Voltage-Regulators-LDO_YONGYUTAI-XC6206-3-3V_C2891841.html</t>
+  </si>
+  <si>
+    <t>R1,R2,R4</t>
+  </si>
+  <si>
+    <t>D3,D4</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1012,7 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
@@ -1373,10 +1379,10 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1389,7 +1395,7 @@
     <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1517,7 +1523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1810,8 +1816,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A14" s="5">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1842,7 +1848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1896,11 +1902,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DD1190-5593-48E9-AA0A-6946DA6E214E}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7265625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1913,7 +1919,7 @@
     <col min="10" max="10" width="77.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1945,15 +1951,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>101</v>
@@ -1972,13 +1978,13 @@
       </c>
       <c r="I2" s="1">
         <f>H2*B2</f>
-        <v>4.6600000000000003E-2</v>
+        <v>6.9900000000000004E-2</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2109,11 +2115,11 @@
       <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2278,7 +2284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2344,7 +2350,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2377,13 +2383,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
       <c r="H17" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I17" s="1">
         <f>SUM(I2:I14)</f>
-        <v>12.362100000000002</v>
+        <v>12.385400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2405,4 +2411,551 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44940B26-B5FC-423E-A5B3-BC75AD2482B7}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="20.81640625" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="77.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>H2*B2</f>
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3*B3</f>
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4*B4</f>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I8" si="0">H5*B5</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1">
+        <v>10.89</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6*B6</f>
+        <v>10.89</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7*B7</f>
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="1">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f>H9*B9</f>
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I12" si="1">H10*B10</f>
+        <v>9.5200000000000007E-2</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="1">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f>H13*B13</f>
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <f>H14*B14</f>
+        <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="1">
+        <f>SUM(I2:I15)</f>
+        <v>12.474400000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K6" r:id="rId1" xr:uid="{5E17472A-F55F-492F-86FA-9ED3ECA09C4B}"/>
+    <hyperlink ref="J5" r:id="rId2" xr:uid="{E4552F0C-C049-496D-AA68-69D765822F22}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{B6277E59-0AC6-4A25-B248-69EA1420C6B0}"/>
+    <hyperlink ref="J12" r:id="rId4" xr:uid="{638E6139-80CE-44AA-ABC7-E036A1E7623B}"/>
+    <hyperlink ref="J13" r:id="rId5" xr:uid="{C8BA4F0F-D957-44EE-80C7-ABE1BE6D8DBE}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{DBB0D532-6A3D-4A9E-A130-F35334DA0DCE}"/>
+    <hyperlink ref="J7" r:id="rId7" xr:uid="{96070B6A-F68F-4006-9B01-3FEC5679FF77}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{13E6A030-4811-4914-87D1-E75382258BED}"/>
+    <hyperlink ref="J11" r:id="rId9" xr:uid="{60A79052-E01E-433F-B23A-B4BBC4968691}"/>
+    <hyperlink ref="J10" r:id="rId10" xr:uid="{F3BEC99B-FC8B-4C7B-BADF-F2D9FB9D5F34}"/>
+    <hyperlink ref="J4" r:id="rId11" xr:uid="{1D211162-E184-47C9-B6FD-9E2C56309284}"/>
+    <hyperlink ref="J2" r:id="rId12" xr:uid="{0851A80D-DD36-4F77-9148-CFC524531A16}"/>
+    <hyperlink ref="J6" r:id="rId13" xr:uid="{EEDFA8C3-682B-4FA4-B557-F05186924367}"/>
+    <hyperlink ref="J14" r:id="rId14" xr:uid="{4C79FBE8-1EE7-4AF6-ACA7-84384FEC78AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>